--- a/results/optimization_Emissions_MRH_Mamelodi.xlsx
+++ b/results/optimization_Emissions_MRH_Mamelodi.xlsx
@@ -491,7 +491,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>20519.06368417207</v>
+        <v>20203.25523239128</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>314576.98</v>
       </c>
       <c r="H3">
-        <v>104.6694748629267</v>
+        <v>68.6769010866207</v>
       </c>
       <c r="I3">
-        <v>12789.36147866288</v>
+        <v>12593.15412880687</v>
       </c>
       <c r="J3">
-        <v>10655.71720349948</v>
+        <v>11200.49581637581</v>
       </c>
       <c r="K3">
         <v>23314.1825</v>
@@ -553,7 +553,7 @@
         <v>8618.7132</v>
       </c>
       <c r="K4">
-        <v>21781.55576816554</v>
+        <v>21660.39483151937</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,7 +588,7 @@
         <v>8618.7132</v>
       </c>
       <c r="K5">
-        <v>16078.9487184534</v>
+        <v>16029.76638133078</v>
       </c>
     </row>
   </sheetData>
